--- a/output/重阳3期尊享B期 T10047(1)_结果.xlsx
+++ b/output/重阳3期尊享B期 T10047(1)_结果.xlsx
@@ -866,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,6 +922,286 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.28%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2013-02-08</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2013-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16.91%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2014-01-24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2014-05-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9.77%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2015-06-19</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2015-09-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2016-01-08</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2016-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4.38%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2017-06-23</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2017-08-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15.95%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2018-01-26</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2018-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12.77%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2018-01-05</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2019-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17.75%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.81%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-02-19</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20.07%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13.61%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20.28%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7.51%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -933,7 +1213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,12 +1255,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.97%</t>
+          <t>9.28%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2012-06-15</t>
+          <t>2012-06-30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1055,12 +1335,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18.70%</t>
+          <t>3.59%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2015-12-31</t>
+          <t>2015-01-31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1115,17 +1395,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.31%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2019-05-31</t>
+          <t>2019-01-31</t>
         </is>
       </c>
     </row>
@@ -1135,12 +1415,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11.74%</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1175,12 +1455,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18.03%</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1195,7 +1475,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>9.88%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1205,7 +1485,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2023-12-31</t>
         </is>
       </c>
     </row>
@@ -1215,12 +1495,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14.36%</t>
+          <t>18.62%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1246,6 +1526,26 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>2025-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
         </is>
       </c>
     </row>

--- a/output/重阳3期尊享B期 T10047(1)_结果.xlsx
+++ b/output/重阳3期尊享B期 T10047(1)_结果.xlsx
@@ -67,7 +67,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
